--- a/medicine/Psychotrope/Ulrike_Genz/Ulrike_Genz.xlsx
+++ b/medicine/Psychotrope/Ulrike_Genz/Ulrike_Genz.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ulrike Genz est une maîtresse brasseuse et fondatrice de la brasserie Schneeeule à Berlin[1].
-Elle se spécialise sur les Berliner Weisse, un style de bière typique de Berlin et sur les levures indigènes[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ulrike Genz est une maîtresse brasseuse et fondatrice de la brasserie Schneeeule à Berlin.
+Elle se spécialise sur les Berliner Weisse, un style de bière typique de Berlin et sur les levures indigènes.
 </t>
         </is>
       </c>
@@ -512,11 +524,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Genz est berlinoise et en particulier du quartier berlinois, Wedding[2].
-Elle étudie le génie civil à Weimar mais après quelques années en poste, elle décide de changer pour étudier la biotechnologie à l'Université technique de Berlin[1],[3],[2].
-Ce programme d'études lui permet de se spécialiser en technologie de brassage[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Genz est berlinoise et en particulier du quartier berlinois, Wedding.
+Elle étudie le génie civil à Weimar mais après quelques années en poste, elle décide de changer pour étudier la biotechnologie à l'Université technique de Berlin.
+Ce programme d'études lui permet de se spécialiser en technologie de brassage.
 </t>
         </is>
       </c>
@@ -547,16 +561,56 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Début dans la bière
-Genz découvre la Berliner Weisse (le champagne du nord[4]) avec le maître brasseur de VLB, Kurt Marshall[2] lors d'une conférence sur la bière[4].
-Elle se passionne pour ce style de bières qui représente une part importante de la culture berlinoise et qui utilise des levures anciennes[4].
-Genz découvre que la Berliner Weisse est un style de bières dont le savoir-faire est en train de se perdre[4],[3] alors que jusqu'à la Première Guerre mondiale, la Berliner Weisse est la bière la plus consommée à Berlin[4]. En effet, elle était souvent de meilleure qualité que l'eau potable[4].
-Brasserie Schneeeule
-Après de multiples essais de brassage maison[4], Ulrike Genz lance en 2016 sa première bière en utilisant les locaux de la brasserie Willner[2].
-Puis, elle se lance dans le développement d'une brasserie destinée à la production de bière de style Berliner Weisse avec Andreas Bogk[1].
-Elle ouvre sa brasserie de 150 mètres carrés à Reinickendorf[2].
-Pour sa marque, elle choisit la chouette comme symbole de la brasserie, car elle représente la sagesse et la connaissance[4].
-La chouette est également en voie de disparition, tout comme la Berliner Weisse[4].
+          <t>Début dans la bière</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Genz découvre la Berliner Weisse (le champagne du nord) avec le maître brasseur de VLB, Kurt Marshall lors d'une conférence sur la bière.
+Elle se passionne pour ce style de bières qui représente une part importante de la culture berlinoise et qui utilise des levures anciennes.
+Genz découvre que la Berliner Weisse est un style de bières dont le savoir-faire est en train de se perdre, alors que jusqu'à la Première Guerre mondiale, la Berliner Weisse est la bière la plus consommée à Berlin. En effet, elle était souvent de meilleure qualité que l'eau potable.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Ulrike_Genz</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ulrike_Genz</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Carrière</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Brasserie Schneeeule</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Après de multiples essais de brassage maison, Ulrike Genz lance en 2016 sa première bière en utilisant les locaux de la brasserie Willner.
+Puis, elle se lance dans le développement d'une brasserie destinée à la production de bière de style Berliner Weisse avec Andreas Bogk.
+Elle ouvre sa brasserie de 150 mètres carrés à Reinickendorf.
+Pour sa marque, elle choisit la chouette comme symbole de la brasserie, car elle représente la sagesse et la connaissance.
+La chouette est également en voie de disparition, tout comme la Berliner Weisse.
 </t>
         </is>
       </c>
